--- a/data/Refs full - corrected Jul20.xlsx
+++ b/data/Refs full - corrected Jul20.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gla-my.sharepoint.com/personal/m_smith_8_research_gla_ac_uk/Documents/PhD/Papers from thesis/Citation analysis/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marissa\Documents\Citation-Network-Analysis-New\Citation-Network-Analysis-New\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="608" documentId="13_ncr:1_{D5D4DFD3-480C-45F1-8CBB-537E24732D5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D09578A1-2754-41B5-A5DA-7E27014836A0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281D5CF9-415E-4758-BE8B-C127468814DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45907,8 +45907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF0FCDE-94BE-466E-B4D1-562E63A429CC}">
   <dimension ref="A1:P2032"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2029" sqref="B2029"/>
+    <sheetView tabSelected="1" topLeftCell="B915" workbookViewId="0">
+      <selection activeCell="M929" sqref="M929"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -66803,6 +66803,9 @@
       <c r="I1882">
         <v>0</v>
       </c>
+      <c r="J1882">
+        <v>0</v>
+      </c>
       <c r="K1882">
         <v>0</v>
       </c>
@@ -66850,6 +66853,9 @@
       <c r="I1883">
         <v>0</v>
       </c>
+      <c r="J1883">
+        <v>0</v>
+      </c>
       <c r="K1883">
         <v>0</v>
       </c>
@@ -66897,6 +66903,9 @@
       <c r="I1884">
         <v>0</v>
       </c>
+      <c r="J1884">
+        <v>0</v>
+      </c>
       <c r="K1884">
         <v>0</v>
       </c>
@@ -66944,6 +66953,9 @@
       <c r="I1885">
         <v>0</v>
       </c>
+      <c r="J1885">
+        <v>0</v>
+      </c>
       <c r="K1885">
         <v>0</v>
       </c>
@@ -66991,6 +67003,9 @@
       <c r="I1886">
         <v>0</v>
       </c>
+      <c r="J1886">
+        <v>0</v>
+      </c>
       <c r="K1886">
         <v>0</v>
       </c>
@@ -67038,6 +67053,9 @@
       <c r="I1887">
         <v>0</v>
       </c>
+      <c r="J1887">
+        <v>0</v>
+      </c>
       <c r="K1887">
         <v>0</v>
       </c>
@@ -67085,6 +67103,9 @@
       <c r="I1888">
         <v>0</v>
       </c>
+      <c r="J1888">
+        <v>0</v>
+      </c>
       <c r="K1888">
         <v>0</v>
       </c>
@@ -67132,6 +67153,9 @@
       <c r="I1889">
         <v>0</v>
       </c>
+      <c r="J1889">
+        <v>0</v>
+      </c>
       <c r="K1889">
         <v>0</v>
       </c>
@@ -67179,6 +67203,9 @@
       <c r="I1890">
         <v>0</v>
       </c>
+      <c r="J1890">
+        <v>0</v>
+      </c>
       <c r="K1890">
         <v>0</v>
       </c>
@@ -67226,6 +67253,9 @@
       <c r="I1891">
         <v>0</v>
       </c>
+      <c r="J1891">
+        <v>0</v>
+      </c>
       <c r="K1891">
         <v>0</v>
       </c>
@@ -67273,6 +67303,9 @@
       <c r="I1892">
         <v>0</v>
       </c>
+      <c r="J1892">
+        <v>0</v>
+      </c>
       <c r="K1892">
         <v>0</v>
       </c>
@@ -67320,6 +67353,9 @@
       <c r="I1893">
         <v>0</v>
       </c>
+      <c r="J1893">
+        <v>0</v>
+      </c>
       <c r="K1893">
         <v>0</v>
       </c>
@@ -67367,6 +67403,9 @@
       <c r="I1894">
         <v>0</v>
       </c>
+      <c r="J1894">
+        <v>0</v>
+      </c>
       <c r="K1894">
         <v>0</v>
       </c>
@@ -67414,6 +67453,9 @@
       <c r="I1895">
         <v>0</v>
       </c>
+      <c r="J1895">
+        <v>0</v>
+      </c>
       <c r="K1895">
         <v>0</v>
       </c>
@@ -67461,6 +67503,9 @@
       <c r="I1896">
         <v>0</v>
       </c>
+      <c r="J1896">
+        <v>0</v>
+      </c>
       <c r="K1896">
         <v>0</v>
       </c>
@@ -67508,6 +67553,9 @@
       <c r="I1897">
         <v>0</v>
       </c>
+      <c r="J1897">
+        <v>0</v>
+      </c>
       <c r="K1897">
         <v>0</v>
       </c>
@@ -67555,6 +67603,9 @@
       <c r="I1898">
         <v>0</v>
       </c>
+      <c r="J1898">
+        <v>0</v>
+      </c>
       <c r="K1898">
         <v>0</v>
       </c>
@@ -67602,6 +67653,9 @@
       <c r="I1899">
         <v>0</v>
       </c>
+      <c r="J1899">
+        <v>0</v>
+      </c>
       <c r="K1899">
         <v>0</v>
       </c>
@@ -67649,6 +67703,9 @@
       <c r="I1900">
         <v>0</v>
       </c>
+      <c r="J1900">
+        <v>0</v>
+      </c>
       <c r="K1900">
         <v>0</v>
       </c>
@@ -67696,6 +67753,9 @@
       <c r="I1901">
         <v>0</v>
       </c>
+      <c r="J1901">
+        <v>0</v>
+      </c>
       <c r="K1901">
         <v>0</v>
       </c>
@@ -67743,6 +67803,9 @@
       <c r="I1902">
         <v>0</v>
       </c>
+      <c r="J1902">
+        <v>0</v>
+      </c>
       <c r="K1902">
         <v>0</v>
       </c>
@@ -67790,6 +67853,9 @@
       <c r="I1903">
         <v>0</v>
       </c>
+      <c r="J1903">
+        <v>0</v>
+      </c>
       <c r="K1903">
         <v>0</v>
       </c>
@@ -67837,6 +67903,9 @@
       <c r="I1904">
         <v>0</v>
       </c>
+      <c r="J1904">
+        <v>0</v>
+      </c>
       <c r="K1904">
         <v>0</v>
       </c>
@@ -67884,6 +67953,9 @@
       <c r="I1905">
         <v>0</v>
       </c>
+      <c r="J1905">
+        <v>0</v>
+      </c>
       <c r="K1905">
         <v>0</v>
       </c>
@@ -67931,6 +68003,9 @@
       <c r="I1906">
         <v>0</v>
       </c>
+      <c r="J1906">
+        <v>0</v>
+      </c>
       <c r="K1906">
         <v>0</v>
       </c>
@@ -67978,6 +68053,9 @@
       <c r="I1907">
         <v>0</v>
       </c>
+      <c r="J1907">
+        <v>0</v>
+      </c>
       <c r="K1907">
         <v>0</v>
       </c>
@@ -68025,6 +68103,9 @@
       <c r="I1908">
         <v>0</v>
       </c>
+      <c r="J1908">
+        <v>0</v>
+      </c>
       <c r="K1908">
         <v>0</v>
       </c>
@@ -68072,6 +68153,9 @@
       <c r="I1909">
         <v>0</v>
       </c>
+      <c r="J1909">
+        <v>0</v>
+      </c>
       <c r="K1909">
         <v>0</v>
       </c>
@@ -68119,6 +68203,9 @@
       <c r="I1910">
         <v>0</v>
       </c>
+      <c r="J1910">
+        <v>0</v>
+      </c>
       <c r="K1910">
         <v>0</v>
       </c>
@@ -68166,6 +68253,9 @@
       <c r="I1911">
         <v>0</v>
       </c>
+      <c r="J1911">
+        <v>0</v>
+      </c>
       <c r="K1911">
         <v>0</v>
       </c>
@@ -68213,6 +68303,9 @@
       <c r="I1912">
         <v>0</v>
       </c>
+      <c r="J1912">
+        <v>0</v>
+      </c>
       <c r="K1912">
         <v>0</v>
       </c>
@@ -68260,6 +68353,9 @@
       <c r="I1913">
         <v>0</v>
       </c>
+      <c r="J1913">
+        <v>0</v>
+      </c>
       <c r="K1913">
         <v>0</v>
       </c>
@@ -68307,6 +68403,9 @@
       <c r="I1914">
         <v>0</v>
       </c>
+      <c r="J1914">
+        <v>0</v>
+      </c>
       <c r="K1914">
         <v>0</v>
       </c>
@@ -68354,6 +68453,9 @@
       <c r="I1915">
         <v>0</v>
       </c>
+      <c r="J1915">
+        <v>0</v>
+      </c>
       <c r="K1915">
         <v>0</v>
       </c>
@@ -68401,6 +68503,9 @@
       <c r="I1916">
         <v>0</v>
       </c>
+      <c r="J1916">
+        <v>0</v>
+      </c>
       <c r="K1916">
         <v>0</v>
       </c>
@@ -68448,6 +68553,9 @@
       <c r="I1917">
         <v>0</v>
       </c>
+      <c r="J1917">
+        <v>0</v>
+      </c>
       <c r="K1917">
         <v>0</v>
       </c>
@@ -68495,6 +68603,9 @@
       <c r="I1918">
         <v>0</v>
       </c>
+      <c r="J1918">
+        <v>0</v>
+      </c>
       <c r="K1918">
         <v>0</v>
       </c>
@@ -68542,6 +68653,9 @@
       <c r="I1919">
         <v>0</v>
       </c>
+      <c r="J1919">
+        <v>0</v>
+      </c>
       <c r="K1919">
         <v>0</v>
       </c>
@@ -68589,6 +68703,9 @@
       <c r="I1920">
         <v>0</v>
       </c>
+      <c r="J1920">
+        <v>0</v>
+      </c>
       <c r="K1920">
         <v>0</v>
       </c>
@@ -68636,6 +68753,9 @@
       <c r="I1921">
         <v>0</v>
       </c>
+      <c r="J1921">
+        <v>0</v>
+      </c>
       <c r="K1921">
         <v>0</v>
       </c>
@@ -68683,6 +68803,9 @@
       <c r="I1922">
         <v>0</v>
       </c>
+      <c r="J1922">
+        <v>0</v>
+      </c>
       <c r="K1922">
         <v>0</v>
       </c>
@@ -68730,6 +68853,9 @@
       <c r="I1923">
         <v>0</v>
       </c>
+      <c r="J1923">
+        <v>0</v>
+      </c>
       <c r="K1923">
         <v>0</v>
       </c>
@@ -68777,6 +68903,9 @@
       <c r="I1924">
         <v>0</v>
       </c>
+      <c r="J1924">
+        <v>0</v>
+      </c>
       <c r="K1924">
         <v>0</v>
       </c>
@@ -68824,6 +68953,9 @@
       <c r="I1925">
         <v>0</v>
       </c>
+      <c r="J1925">
+        <v>0</v>
+      </c>
       <c r="K1925">
         <v>0</v>
       </c>
@@ -68871,6 +69003,9 @@
       <c r="I1926">
         <v>0</v>
       </c>
+      <c r="J1926">
+        <v>0</v>
+      </c>
       <c r="K1926">
         <v>0</v>
       </c>
@@ -68918,6 +69053,9 @@
       <c r="I1927">
         <v>0</v>
       </c>
+      <c r="J1927">
+        <v>0</v>
+      </c>
       <c r="K1927">
         <v>0</v>
       </c>
@@ -68965,6 +69103,9 @@
       <c r="I1928">
         <v>0</v>
       </c>
+      <c r="J1928">
+        <v>0</v>
+      </c>
       <c r="K1928">
         <v>0</v>
       </c>
@@ -69012,6 +69153,9 @@
       <c r="I1929">
         <v>0</v>
       </c>
+      <c r="J1929">
+        <v>0</v>
+      </c>
       <c r="K1929">
         <v>0</v>
       </c>
@@ -69059,6 +69203,9 @@
       <c r="I1930">
         <v>0</v>
       </c>
+      <c r="J1930">
+        <v>0</v>
+      </c>
       <c r="K1930">
         <v>0</v>
       </c>
@@ -69106,6 +69253,9 @@
       <c r="I1931">
         <v>0</v>
       </c>
+      <c r="J1931">
+        <v>0</v>
+      </c>
       <c r="K1931">
         <v>0</v>
       </c>
@@ -69153,6 +69303,9 @@
       <c r="I1932">
         <v>0</v>
       </c>
+      <c r="J1932">
+        <v>0</v>
+      </c>
       <c r="K1932">
         <v>0</v>
       </c>
@@ -69200,6 +69353,9 @@
       <c r="I1933">
         <v>0</v>
       </c>
+      <c r="J1933">
+        <v>0</v>
+      </c>
       <c r="K1933">
         <v>0</v>
       </c>
@@ -69247,6 +69403,9 @@
       <c r="I1934">
         <v>0</v>
       </c>
+      <c r="J1934">
+        <v>0</v>
+      </c>
       <c r="K1934">
         <v>0</v>
       </c>
@@ -69294,6 +69453,9 @@
       <c r="I1935">
         <v>0</v>
       </c>
+      <c r="J1935">
+        <v>0</v>
+      </c>
       <c r="K1935">
         <v>0</v>
       </c>
@@ -69341,6 +69503,9 @@
       <c r="I1936">
         <v>0</v>
       </c>
+      <c r="J1936">
+        <v>0</v>
+      </c>
       <c r="K1936">
         <v>0</v>
       </c>
@@ -69388,6 +69553,9 @@
       <c r="I1937">
         <v>0</v>
       </c>
+      <c r="J1937">
+        <v>0</v>
+      </c>
       <c r="K1937">
         <v>0</v>
       </c>
@@ -69435,6 +69603,9 @@
       <c r="I1938">
         <v>0</v>
       </c>
+      <c r="J1938">
+        <v>0</v>
+      </c>
       <c r="K1938">
         <v>0</v>
       </c>
@@ -69482,6 +69653,9 @@
       <c r="I1939">
         <v>0</v>
       </c>
+      <c r="J1939">
+        <v>0</v>
+      </c>
       <c r="K1939">
         <v>0</v>
       </c>
@@ -69529,6 +69703,9 @@
       <c r="I1940">
         <v>0</v>
       </c>
+      <c r="J1940">
+        <v>0</v>
+      </c>
       <c r="K1940">
         <v>0</v>
       </c>
@@ -69576,6 +69753,9 @@
       <c r="I1941">
         <v>0</v>
       </c>
+      <c r="J1941">
+        <v>0</v>
+      </c>
       <c r="K1941">
         <v>0</v>
       </c>
@@ -69623,6 +69803,9 @@
       <c r="I1942">
         <v>0</v>
       </c>
+      <c r="J1942">
+        <v>0</v>
+      </c>
       <c r="K1942">
         <v>0</v>
       </c>
@@ -69670,6 +69853,9 @@
       <c r="I1943">
         <v>0</v>
       </c>
+      <c r="J1943">
+        <v>0</v>
+      </c>
       <c r="K1943">
         <v>0</v>
       </c>
@@ -69717,6 +69903,9 @@
       <c r="I1944">
         <v>0</v>
       </c>
+      <c r="J1944">
+        <v>0</v>
+      </c>
       <c r="K1944">
         <v>0</v>
       </c>
@@ -69772,6 +69961,9 @@
       <c r="I1947">
         <v>0</v>
       </c>
+      <c r="J1947">
+        <v>0</v>
+      </c>
       <c r="K1947">
         <v>0</v>
       </c>
@@ -69819,6 +70011,9 @@
       <c r="I1948">
         <v>0</v>
       </c>
+      <c r="J1948">
+        <v>0</v>
+      </c>
       <c r="K1948">
         <v>0</v>
       </c>
@@ -69866,6 +70061,9 @@
       <c r="I1949">
         <v>0</v>
       </c>
+      <c r="J1949">
+        <v>0</v>
+      </c>
       <c r="K1949">
         <v>0</v>
       </c>
@@ -69913,6 +70111,9 @@
       <c r="I1950">
         <v>0</v>
       </c>
+      <c r="J1950">
+        <v>0</v>
+      </c>
       <c r="K1950">
         <v>0</v>
       </c>
@@ -69960,6 +70161,9 @@
       <c r="I1951">
         <v>0</v>
       </c>
+      <c r="J1951">
+        <v>0</v>
+      </c>
       <c r="K1951">
         <v>0</v>
       </c>
@@ -70007,6 +70211,9 @@
       <c r="I1952">
         <v>0</v>
       </c>
+      <c r="J1952">
+        <v>0</v>
+      </c>
       <c r="K1952">
         <v>0</v>
       </c>
@@ -70054,6 +70261,9 @@
       <c r="I1953">
         <v>0</v>
       </c>
+      <c r="J1953">
+        <v>0</v>
+      </c>
       <c r="K1953">
         <v>0</v>
       </c>
@@ -70101,6 +70311,9 @@
       <c r="I1954">
         <v>0</v>
       </c>
+      <c r="J1954">
+        <v>0</v>
+      </c>
       <c r="K1954">
         <v>0</v>
       </c>
@@ -70148,6 +70361,9 @@
       <c r="I1955">
         <v>0</v>
       </c>
+      <c r="J1955">
+        <v>0</v>
+      </c>
       <c r="K1955">
         <v>0</v>
       </c>
@@ -70195,6 +70411,9 @@
       <c r="I1956">
         <v>0</v>
       </c>
+      <c r="J1956">
+        <v>0</v>
+      </c>
       <c r="K1956">
         <v>0</v>
       </c>
@@ -70242,6 +70461,9 @@
       <c r="I1957">
         <v>0</v>
       </c>
+      <c r="J1957">
+        <v>0</v>
+      </c>
       <c r="K1957">
         <v>0</v>
       </c>
@@ -70289,6 +70511,9 @@
       <c r="I1958">
         <v>0</v>
       </c>
+      <c r="J1958">
+        <v>0</v>
+      </c>
       <c r="K1958">
         <v>0</v>
       </c>
@@ -70336,6 +70561,9 @@
       <c r="I1959">
         <v>0</v>
       </c>
+      <c r="J1959">
+        <v>0</v>
+      </c>
       <c r="K1959">
         <v>0</v>
       </c>
@@ -70383,6 +70611,9 @@
       <c r="I1960">
         <v>0</v>
       </c>
+      <c r="J1960">
+        <v>0</v>
+      </c>
       <c r="K1960">
         <v>0</v>
       </c>
@@ -70430,6 +70661,9 @@
       <c r="I1961">
         <v>0</v>
       </c>
+      <c r="J1961">
+        <v>0</v>
+      </c>
       <c r="K1961">
         <v>0</v>
       </c>
@@ -70477,6 +70711,9 @@
       <c r="I1962">
         <v>0</v>
       </c>
+      <c r="J1962">
+        <v>0</v>
+      </c>
       <c r="K1962">
         <v>0</v>
       </c>
@@ -70524,6 +70761,9 @@
       <c r="I1963">
         <v>0</v>
       </c>
+      <c r="J1963">
+        <v>0</v>
+      </c>
       <c r="K1963">
         <v>0</v>
       </c>
@@ -70571,6 +70811,9 @@
       <c r="I1964">
         <v>0</v>
       </c>
+      <c r="J1964">
+        <v>0</v>
+      </c>
       <c r="K1964">
         <v>0</v>
       </c>
@@ -70618,6 +70861,9 @@
       <c r="I1965">
         <v>0</v>
       </c>
+      <c r="J1965">
+        <v>0</v>
+      </c>
       <c r="K1965">
         <v>0</v>
       </c>
@@ -70665,6 +70911,9 @@
       <c r="I1966">
         <v>0</v>
       </c>
+      <c r="J1966">
+        <v>0</v>
+      </c>
       <c r="K1966">
         <v>0</v>
       </c>
@@ -70712,6 +70961,9 @@
       <c r="I1967">
         <v>0</v>
       </c>
+      <c r="J1967">
+        <v>0</v>
+      </c>
       <c r="K1967">
         <v>0</v>
       </c>
@@ -70759,6 +71011,9 @@
       <c r="I1968">
         <v>0</v>
       </c>
+      <c r="J1968">
+        <v>0</v>
+      </c>
       <c r="K1968">
         <v>0</v>
       </c>
@@ -70806,6 +71061,9 @@
       <c r="I1969">
         <v>0</v>
       </c>
+      <c r="J1969">
+        <v>0</v>
+      </c>
       <c r="K1969">
         <v>0</v>
       </c>
@@ -70853,6 +71111,9 @@
       <c r="I1970">
         <v>0</v>
       </c>
+      <c r="J1970">
+        <v>0</v>
+      </c>
       <c r="K1970">
         <v>0</v>
       </c>
@@ -70900,6 +71161,9 @@
       <c r="I1971">
         <v>0</v>
       </c>
+      <c r="J1971">
+        <v>0</v>
+      </c>
       <c r="K1971">
         <v>0</v>
       </c>
@@ -70947,6 +71211,9 @@
       <c r="I1972">
         <v>0</v>
       </c>
+      <c r="J1972">
+        <v>0</v>
+      </c>
       <c r="K1972">
         <v>0</v>
       </c>
@@ -70994,6 +71261,9 @@
       <c r="I1973">
         <v>0</v>
       </c>
+      <c r="J1973">
+        <v>0</v>
+      </c>
       <c r="K1973">
         <v>0</v>
       </c>
@@ -71041,6 +71311,9 @@
       <c r="I1974">
         <v>0</v>
       </c>
+      <c r="J1974">
+        <v>0</v>
+      </c>
       <c r="K1974">
         <v>0</v>
       </c>
@@ -71088,6 +71361,9 @@
       <c r="I1975">
         <v>0</v>
       </c>
+      <c r="J1975">
+        <v>0</v>
+      </c>
       <c r="K1975">
         <v>0</v>
       </c>
@@ -71135,6 +71411,9 @@
       <c r="I1976">
         <v>0</v>
       </c>
+      <c r="J1976">
+        <v>0</v>
+      </c>
       <c r="K1976">
         <v>0</v>
       </c>
@@ -71182,6 +71461,9 @@
       <c r="I1977">
         <v>0</v>
       </c>
+      <c r="J1977">
+        <v>0</v>
+      </c>
       <c r="K1977">
         <v>0</v>
       </c>
@@ -71229,6 +71511,9 @@
       <c r="I1978">
         <v>0</v>
       </c>
+      <c r="J1978">
+        <v>0</v>
+      </c>
       <c r="K1978">
         <v>0</v>
       </c>
@@ -71276,6 +71561,9 @@
       <c r="I1979">
         <v>0</v>
       </c>
+      <c r="J1979">
+        <v>0</v>
+      </c>
       <c r="K1979">
         <v>0</v>
       </c>
@@ -71323,6 +71611,9 @@
       <c r="I1980">
         <v>0</v>
       </c>
+      <c r="J1980">
+        <v>0</v>
+      </c>
       <c r="K1980">
         <v>0</v>
       </c>
@@ -71370,6 +71661,9 @@
       <c r="I1981">
         <v>0</v>
       </c>
+      <c r="J1981">
+        <v>0</v>
+      </c>
       <c r="K1981">
         <v>0</v>
       </c>
@@ -71417,6 +71711,9 @@
       <c r="I1982">
         <v>0</v>
       </c>
+      <c r="J1982">
+        <v>0</v>
+      </c>
       <c r="K1982">
         <v>0</v>
       </c>
@@ -71464,6 +71761,9 @@
       <c r="I1983">
         <v>0</v>
       </c>
+      <c r="J1983">
+        <v>0</v>
+      </c>
       <c r="K1983">
         <v>0</v>
       </c>
@@ -71511,6 +71811,9 @@
       <c r="I1984">
         <v>0</v>
       </c>
+      <c r="J1984">
+        <v>0</v>
+      </c>
       <c r="K1984">
         <v>0</v>
       </c>
@@ -71558,6 +71861,9 @@
       <c r="I1985">
         <v>0</v>
       </c>
+      <c r="J1985">
+        <v>0</v>
+      </c>
       <c r="K1985">
         <v>0</v>
       </c>
@@ -71605,6 +71911,9 @@
       <c r="I1986">
         <v>0</v>
       </c>
+      <c r="J1986">
+        <v>0</v>
+      </c>
       <c r="K1986">
         <v>0</v>
       </c>
@@ -71652,6 +71961,9 @@
       <c r="I1987">
         <v>0</v>
       </c>
+      <c r="J1987">
+        <v>0</v>
+      </c>
       <c r="K1987">
         <v>0</v>
       </c>
@@ -71699,6 +72011,9 @@
       <c r="I1988">
         <v>0</v>
       </c>
+      <c r="J1988">
+        <v>0</v>
+      </c>
       <c r="K1988">
         <v>0</v>
       </c>
@@ -71746,6 +72061,9 @@
       <c r="I1989">
         <v>0</v>
       </c>
+      <c r="J1989">
+        <v>0</v>
+      </c>
       <c r="K1989">
         <v>0</v>
       </c>
@@ -71793,6 +72111,9 @@
       <c r="I1990">
         <v>0</v>
       </c>
+      <c r="J1990">
+        <v>0</v>
+      </c>
       <c r="K1990">
         <v>0</v>
       </c>
@@ -71840,6 +72161,9 @@
       <c r="I1991">
         <v>0</v>
       </c>
+      <c r="J1991">
+        <v>0</v>
+      </c>
       <c r="K1991">
         <v>0</v>
       </c>
@@ -71887,6 +72211,9 @@
       <c r="I1992">
         <v>0</v>
       </c>
+      <c r="J1992">
+        <v>0</v>
+      </c>
       <c r="K1992">
         <v>0</v>
       </c>
@@ -71934,6 +72261,9 @@
       <c r="I1993">
         <v>0</v>
       </c>
+      <c r="J1993">
+        <v>0</v>
+      </c>
       <c r="K1993">
         <v>0</v>
       </c>
@@ -71981,6 +72311,9 @@
       <c r="I1994">
         <v>0</v>
       </c>
+      <c r="J1994">
+        <v>0</v>
+      </c>
       <c r="K1994">
         <v>0</v>
       </c>
@@ -72028,6 +72361,9 @@
       <c r="I1995">
         <v>0</v>
       </c>
+      <c r="J1995">
+        <v>0</v>
+      </c>
       <c r="K1995">
         <v>0</v>
       </c>
@@ -72075,6 +72411,9 @@
       <c r="I1996">
         <v>0</v>
       </c>
+      <c r="J1996">
+        <v>0</v>
+      </c>
       <c r="K1996">
         <v>0</v>
       </c>
@@ -72122,6 +72461,9 @@
       <c r="I1997">
         <v>0</v>
       </c>
+      <c r="J1997">
+        <v>0</v>
+      </c>
       <c r="K1997">
         <v>0</v>
       </c>
@@ -72169,6 +72511,9 @@
       <c r="I1998">
         <v>0</v>
       </c>
+      <c r="J1998">
+        <v>0</v>
+      </c>
       <c r="K1998">
         <v>0</v>
       </c>
@@ -72216,6 +72561,9 @@
       <c r="I1999">
         <v>0</v>
       </c>
+      <c r="J1999">
+        <v>0</v>
+      </c>
       <c r="K1999">
         <v>0</v>
       </c>
@@ -72263,6 +72611,9 @@
       <c r="I2000">
         <v>0</v>
       </c>
+      <c r="J2000">
+        <v>0</v>
+      </c>
       <c r="K2000">
         <v>0</v>
       </c>
@@ -72310,6 +72661,9 @@
       <c r="I2001">
         <v>0</v>
       </c>
+      <c r="J2001">
+        <v>0</v>
+      </c>
       <c r="K2001">
         <v>0</v>
       </c>
@@ -72357,6 +72711,9 @@
       <c r="I2002">
         <v>0</v>
       </c>
+      <c r="J2002">
+        <v>0</v>
+      </c>
       <c r="K2002">
         <v>0</v>
       </c>
@@ -72404,6 +72761,9 @@
       <c r="I2003">
         <v>0</v>
       </c>
+      <c r="J2003">
+        <v>0</v>
+      </c>
       <c r="K2003">
         <v>0</v>
       </c>
@@ -72451,6 +72811,9 @@
       <c r="I2004">
         <v>0</v>
       </c>
+      <c r="J2004">
+        <v>0</v>
+      </c>
       <c r="K2004">
         <v>0</v>
       </c>
@@ -72498,6 +72861,9 @@
       <c r="I2005">
         <v>0</v>
       </c>
+      <c r="J2005">
+        <v>0</v>
+      </c>
       <c r="K2005">
         <v>0</v>
       </c>
@@ -72545,6 +72911,9 @@
       <c r="I2006">
         <v>0</v>
       </c>
+      <c r="J2006">
+        <v>0</v>
+      </c>
       <c r="K2006">
         <v>0</v>
       </c>
@@ -72592,6 +72961,9 @@
       <c r="I2007">
         <v>0</v>
       </c>
+      <c r="J2007">
+        <v>0</v>
+      </c>
       <c r="K2007">
         <v>0</v>
       </c>
@@ -72639,6 +73011,9 @@
       <c r="I2008">
         <v>0</v>
       </c>
+      <c r="J2008">
+        <v>0</v>
+      </c>
       <c r="K2008">
         <v>0</v>
       </c>
@@ -72686,6 +73061,9 @@
       <c r="I2009">
         <v>0</v>
       </c>
+      <c r="J2009">
+        <v>0</v>
+      </c>
       <c r="K2009">
         <v>0</v>
       </c>
@@ -72733,6 +73111,9 @@
       <c r="I2010">
         <v>0</v>
       </c>
+      <c r="J2010">
+        <v>0</v>
+      </c>
       <c r="K2010">
         <v>0</v>
       </c>
@@ -72780,6 +73161,9 @@
       <c r="I2011">
         <v>0</v>
       </c>
+      <c r="J2011">
+        <v>0</v>
+      </c>
       <c r="K2011">
         <v>0</v>
       </c>
@@ -72827,6 +73211,9 @@
       <c r="I2012">
         <v>0</v>
       </c>
+      <c r="J2012">
+        <v>0</v>
+      </c>
       <c r="K2012">
         <v>0</v>
       </c>
@@ -72874,6 +73261,9 @@
       <c r="I2013">
         <v>0</v>
       </c>
+      <c r="J2013">
+        <v>0</v>
+      </c>
       <c r="K2013">
         <v>0</v>
       </c>
@@ -72921,6 +73311,9 @@
       <c r="I2014">
         <v>0</v>
       </c>
+      <c r="J2014">
+        <v>0</v>
+      </c>
       <c r="K2014">
         <v>0</v>
       </c>
@@ -72968,6 +73361,9 @@
       <c r="I2015">
         <v>0</v>
       </c>
+      <c r="J2015">
+        <v>0</v>
+      </c>
       <c r="K2015">
         <v>0</v>
       </c>
@@ -73015,6 +73411,9 @@
       <c r="I2016">
         <v>0</v>
       </c>
+      <c r="J2016">
+        <v>0</v>
+      </c>
       <c r="K2016">
         <v>0</v>
       </c>
@@ -73062,6 +73461,9 @@
       <c r="I2017">
         <v>0</v>
       </c>
+      <c r="J2017">
+        <v>0</v>
+      </c>
       <c r="K2017">
         <v>0</v>
       </c>
@@ -73109,6 +73511,9 @@
       <c r="I2018">
         <v>0</v>
       </c>
+      <c r="J2018">
+        <v>0</v>
+      </c>
       <c r="K2018">
         <v>0</v>
       </c>
@@ -73156,6 +73561,9 @@
       <c r="I2019">
         <v>0</v>
       </c>
+      <c r="J2019">
+        <v>0</v>
+      </c>
       <c r="K2019">
         <v>0</v>
       </c>
@@ -73203,6 +73611,9 @@
       <c r="I2020">
         <v>0</v>
       </c>
+      <c r="J2020">
+        <v>0</v>
+      </c>
       <c r="K2020">
         <v>0</v>
       </c>
@@ -73250,6 +73661,9 @@
       <c r="I2021">
         <v>0</v>
       </c>
+      <c r="J2021">
+        <v>0</v>
+      </c>
       <c r="K2021">
         <v>0</v>
       </c>
@@ -73297,6 +73711,9 @@
       <c r="I2022">
         <v>0</v>
       </c>
+      <c r="J2022">
+        <v>0</v>
+      </c>
       <c r="K2022">
         <v>0</v>
       </c>
@@ -73344,6 +73761,9 @@
       <c r="I2023">
         <v>0</v>
       </c>
+      <c r="J2023">
+        <v>0</v>
+      </c>
       <c r="K2023">
         <v>0</v>
       </c>
@@ -73391,6 +73811,9 @@
       <c r="I2024">
         <v>0</v>
       </c>
+      <c r="J2024">
+        <v>0</v>
+      </c>
       <c r="K2024">
         <v>0</v>
       </c>
@@ -73438,6 +73861,9 @@
       <c r="I2025">
         <v>0</v>
       </c>
+      <c r="J2025">
+        <v>0</v>
+      </c>
       <c r="K2025">
         <v>0</v>
       </c>
@@ -73485,6 +73911,9 @@
       <c r="I2026">
         <v>0</v>
       </c>
+      <c r="J2026">
+        <v>0</v>
+      </c>
       <c r="K2026">
         <v>0</v>
       </c>
@@ -73532,6 +73961,9 @@
       <c r="I2027">
         <v>0</v>
       </c>
+      <c r="J2027">
+        <v>0</v>
+      </c>
       <c r="K2027">
         <v>0</v>
       </c>
@@ -73579,6 +74011,9 @@
       <c r="I2028">
         <v>0</v>
       </c>
+      <c r="J2028">
+        <v>0</v>
+      </c>
       <c r="K2028">
         <v>0</v>
       </c>
@@ -73626,6 +74061,9 @@
       <c r="I2029">
         <v>0</v>
       </c>
+      <c r="J2029">
+        <v>0</v>
+      </c>
       <c r="K2029">
         <v>0</v>
       </c>
@@ -73673,6 +74111,9 @@
       <c r="I2030">
         <v>0</v>
       </c>
+      <c r="J2030">
+        <v>0</v>
+      </c>
       <c r="K2030">
         <v>0</v>
       </c>
@@ -73720,6 +74161,9 @@
       <c r="I2031">
         <v>0</v>
       </c>
+      <c r="J2031">
+        <v>0</v>
+      </c>
       <c r="K2031">
         <v>0</v>
       </c>
@@ -73742,6 +74186,51 @@
     <row r="2032" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2032" s="2" t="s">
         <v>3613</v>
+      </c>
+      <c r="B2032">
+        <v>0</v>
+      </c>
+      <c r="C2032">
+        <v>0</v>
+      </c>
+      <c r="D2032">
+        <v>0</v>
+      </c>
+      <c r="E2032">
+        <v>0</v>
+      </c>
+      <c r="F2032">
+        <v>0</v>
+      </c>
+      <c r="G2032">
+        <v>0</v>
+      </c>
+      <c r="H2032">
+        <v>0</v>
+      </c>
+      <c r="I2032">
+        <v>0</v>
+      </c>
+      <c r="J2032">
+        <v>0</v>
+      </c>
+      <c r="K2032">
+        <v>0</v>
+      </c>
+      <c r="L2032">
+        <v>0</v>
+      </c>
+      <c r="M2032">
+        <v>0</v>
+      </c>
+      <c r="N2032">
+        <v>0</v>
+      </c>
+      <c r="O2032">
+        <v>0</v>
+      </c>
+      <c r="P2032">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/Refs full - corrected Jul20.xlsx
+++ b/data/Refs full - corrected Jul20.xlsx
@@ -8,54 +8,54 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2286432b\OneDrive - University of Glasgow\R Studio - home folder\Citation network analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{281D5CF9-415E-4758-BE8B-C127468814DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{38EB9863-DF8C-48B3-976A-D2DE7C4D3B59}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{281D5CF9-415E-4758-BE8B-C127468814DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{C8C97D9E-98C3-4AD9-9E7D-6915DBC4C30E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Full References " sheetId="2" r:id="rId1"/>
+    <sheet name="Full References" sheetId="2" r:id="rId1"/>
     <sheet name="Clean References" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_bookmark12" localSheetId="0">'Full References '!#REF!</definedName>
-    <definedName name="_bookmark13" localSheetId="0">'Full References '!$A$11</definedName>
-    <definedName name="_bookmark15" localSheetId="0">'Full References '!#REF!</definedName>
-    <definedName name="_bookmark16" localSheetId="0">'Full References '!$A$12</definedName>
-    <definedName name="_bookmark17" localSheetId="0">'Full References '!$A$13</definedName>
-    <definedName name="_bookmark174" localSheetId="0">'Full References '!$A$244</definedName>
-    <definedName name="_bookmark175" localSheetId="0">'Full References '!$A$245</definedName>
-    <definedName name="_bookmark176" localSheetId="0">'Full References '!$A$246</definedName>
-    <definedName name="_bookmark177" localSheetId="0">'Full References '!$A$247</definedName>
-    <definedName name="_bookmark178" localSheetId="0">'Full References '!$A$248</definedName>
-    <definedName name="_bookmark179" localSheetId="0">'Full References '!$A$249</definedName>
-    <definedName name="_bookmark18" localSheetId="0">'Full References '!$A$14</definedName>
-    <definedName name="_bookmark180" localSheetId="0">'Full References '!$A$250</definedName>
-    <definedName name="_bookmark181" localSheetId="0">'Full References '!$A$251</definedName>
-    <definedName name="_bookmark182" localSheetId="0">'Full References '!$A$252</definedName>
-    <definedName name="_bookmark183" localSheetId="0">'Full References '!$A$253</definedName>
-    <definedName name="_bookmark184" localSheetId="0">'Full References '!$A$254</definedName>
-    <definedName name="_bookmark185" localSheetId="0">'Full References '!$A$255</definedName>
-    <definedName name="_bookmark186" localSheetId="0">'Full References '!$A$256</definedName>
-    <definedName name="_bookmark187" localSheetId="0">'Full References '!$A$257</definedName>
-    <definedName name="_bookmark188" localSheetId="0">'Full References '!$A$258</definedName>
-    <definedName name="_bookmark189" localSheetId="0">'Full References '!$A$259</definedName>
-    <definedName name="_bookmark19" localSheetId="0">'Full References '!$A$15</definedName>
-    <definedName name="_bookmark190" localSheetId="0">'Full References '!$A$260</definedName>
-    <definedName name="_bookmark191" localSheetId="0">'Full References '!$A$261</definedName>
-    <definedName name="_bookmark192" localSheetId="0">'Full References '!$A$262</definedName>
-    <definedName name="_bookmark193" localSheetId="0">'Full References '!$A$263</definedName>
-    <definedName name="_bookmark194" localSheetId="0">'Full References '!$A$264</definedName>
-    <definedName name="_bookmark195" localSheetId="0">'Full References '!$A$265</definedName>
-    <definedName name="_bookmark20" localSheetId="0">'Full References '!#REF!</definedName>
-    <definedName name="_bookmark22" localSheetId="0">'Full References '!$A$16</definedName>
-    <definedName name="_bookmark23" localSheetId="0">'Full References '!$A$18</definedName>
-    <definedName name="_bookmark24" localSheetId="0">'Full References '!$A$19</definedName>
-    <definedName name="_bookmark25" localSheetId="0">'Full References '!#REF!</definedName>
-    <definedName name="_bookmark33" localSheetId="0">'Full References '!$A$24</definedName>
-    <definedName name="_bookmark34" localSheetId="0">'Full References '!$A$25</definedName>
-    <definedName name="_bookmark35" localSheetId="0">'Full References '!$A$26</definedName>
-    <definedName name="_bookmark36" localSheetId="0">'Full References '!$A$27</definedName>
-    <definedName name="_bookmark37" localSheetId="0">'Full References '!$A$28</definedName>
+    <definedName name="_bookmark12" localSheetId="0">'Full References'!#REF!</definedName>
+    <definedName name="_bookmark13" localSheetId="0">'Full References'!$A$11</definedName>
+    <definedName name="_bookmark15" localSheetId="0">'Full References'!#REF!</definedName>
+    <definedName name="_bookmark16" localSheetId="0">'Full References'!$A$12</definedName>
+    <definedName name="_bookmark17" localSheetId="0">'Full References'!$A$13</definedName>
+    <definedName name="_bookmark174" localSheetId="0">'Full References'!$A$244</definedName>
+    <definedName name="_bookmark175" localSheetId="0">'Full References'!$A$245</definedName>
+    <definedName name="_bookmark176" localSheetId="0">'Full References'!$A$246</definedName>
+    <definedName name="_bookmark177" localSheetId="0">'Full References'!$A$247</definedName>
+    <definedName name="_bookmark178" localSheetId="0">'Full References'!$A$248</definedName>
+    <definedName name="_bookmark179" localSheetId="0">'Full References'!$A$249</definedName>
+    <definedName name="_bookmark18" localSheetId="0">'Full References'!$A$14</definedName>
+    <definedName name="_bookmark180" localSheetId="0">'Full References'!$A$250</definedName>
+    <definedName name="_bookmark181" localSheetId="0">'Full References'!$A$251</definedName>
+    <definedName name="_bookmark182" localSheetId="0">'Full References'!$A$252</definedName>
+    <definedName name="_bookmark183" localSheetId="0">'Full References'!$A$253</definedName>
+    <definedName name="_bookmark184" localSheetId="0">'Full References'!$A$254</definedName>
+    <definedName name="_bookmark185" localSheetId="0">'Full References'!$A$255</definedName>
+    <definedName name="_bookmark186" localSheetId="0">'Full References'!$A$256</definedName>
+    <definedName name="_bookmark187" localSheetId="0">'Full References'!$A$257</definedName>
+    <definedName name="_bookmark188" localSheetId="0">'Full References'!$A$258</definedName>
+    <definedName name="_bookmark189" localSheetId="0">'Full References'!$A$259</definedName>
+    <definedName name="_bookmark19" localSheetId="0">'Full References'!$A$15</definedName>
+    <definedName name="_bookmark190" localSheetId="0">'Full References'!$A$260</definedName>
+    <definedName name="_bookmark191" localSheetId="0">'Full References'!$A$261</definedName>
+    <definedName name="_bookmark192" localSheetId="0">'Full References'!$A$262</definedName>
+    <definedName name="_bookmark193" localSheetId="0">'Full References'!$A$263</definedName>
+    <definedName name="_bookmark194" localSheetId="0">'Full References'!$A$264</definedName>
+    <definedName name="_bookmark195" localSheetId="0">'Full References'!$A$265</definedName>
+    <definedName name="_bookmark20" localSheetId="0">'Full References'!#REF!</definedName>
+    <definedName name="_bookmark22" localSheetId="0">'Full References'!$A$16</definedName>
+    <definedName name="_bookmark23" localSheetId="0">'Full References'!$A$18</definedName>
+    <definedName name="_bookmark24" localSheetId="0">'Full References'!$A$19</definedName>
+    <definedName name="_bookmark25" localSheetId="0">'Full References'!#REF!</definedName>
+    <definedName name="_bookmark33" localSheetId="0">'Full References'!$A$24</definedName>
+    <definedName name="_bookmark34" localSheetId="0">'Full References'!$A$25</definedName>
+    <definedName name="_bookmark35" localSheetId="0">'Full References'!$A$26</definedName>
+    <definedName name="_bookmark36" localSheetId="0">'Full References'!$A$27</definedName>
+    <definedName name="_bookmark37" localSheetId="0">'Full References'!$A$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -12041,10 +12041,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q2032"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2026" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="A2032" sqref="A2032"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -45911,7 +45911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF0FCDE-94BE-466E-B4D1-562E63A429CC}">
   <dimension ref="A1:P2034"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2018" workbookViewId="0">
       <selection activeCell="A1948" sqref="A1948"/>
     </sheetView>
   </sheetViews>

--- a/data/Refs full - corrected Jul20.xlsx
+++ b/data/Refs full - corrected Jul20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marissa\Documents\Citation-Network-Analysis-New\Citation-Network-Analysis-New\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6F124F-C8CD-4EDC-B9FB-AE42FAAF56FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECEA099-145D-4B41-942D-4CFA0228378F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2050" yWindow="460" windowWidth="8870" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full References" sheetId="2" r:id="rId1"/>
@@ -11366,9 +11366,6 @@
     <t>World Health Organization. Statement from specialists in nicotine science and public health policy. Available at: http://ecigarette-research.com/WHO.pdf. Accessed January 17, 2019.</t>
   </si>
   <si>
-    <t>World Health Oraginization (ND)</t>
-  </si>
-  <si>
     <t>Burstyn I. Peering through the mist: systematic review of what the chemistry of contaminants in electronic cigarettes tells us about health risks. BMC Public Health. 2014;14:18.</t>
   </si>
   <si>
@@ -11568,6 +11565,9 @@
   </si>
   <si>
     <t>National Academies of Sciences, Engineering and Medicine (2018)</t>
+  </si>
+  <si>
+    <t>World Health Oraganization (ND)</t>
   </si>
 </sst>
 </file>
@@ -12043,10 +12043,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q2032"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1412" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2003" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A1420" sqref="A1420"/>
+      <selection pane="bottomLeft" activeCell="B2017" sqref="B2017"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12078,7 +12078,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>3716</v>
+        <v>3715</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>118</v>
@@ -12096,10 +12096,10 @@
         <v>396</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>3717</v>
+        <v>3716</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>3721</v>
+        <v>3720</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>3573</v>
@@ -18539,7 +18539,7 @@
         <v>113</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -23097,7 +23097,7 @@
         <v>900</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>3710</v>
+        <v>3709</v>
       </c>
       <c r="G507">
         <v>1</v>
@@ -26971,10 +26971,10 @@
     </row>
     <row r="828" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A828" s="7" t="s">
-        <v>3721</v>
+        <v>3720</v>
       </c>
       <c r="B828" s="7" t="s">
-        <v>3721</v>
+        <v>3720</v>
       </c>
       <c r="K828">
         <v>1</v>
@@ -26982,7 +26982,7 @@
     </row>
     <row r="829" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A829" s="13" t="s">
-        <v>3722</v>
+        <v>3721</v>
       </c>
       <c r="B829" s="3" t="s">
         <v>1218</v>
@@ -26990,34 +26990,34 @@
     </row>
     <row r="830" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A830" s="9" t="s">
-        <v>3723</v>
+        <v>3722</v>
       </c>
       <c r="B830" t="s">
-        <v>3727</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="831" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A831" s="10" t="s">
-        <v>3724</v>
+        <v>3723</v>
       </c>
       <c r="B831" t="s">
-        <v>3728</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="832" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A832" t="s">
-        <v>3725</v>
+        <v>3724</v>
       </c>
       <c r="B832" t="s">
-        <v>3729</v>
+        <v>3728</v>
       </c>
     </row>
     <row r="833" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A833" s="9" t="s">
-        <v>3726</v>
+        <v>3725</v>
       </c>
       <c r="B833" t="s">
-        <v>3730</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="835" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -28017,7 +28017,7 @@
         <v>1539</v>
       </c>
       <c r="B929" s="8" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="O929">
         <v>1</v>
@@ -28314,7 +28314,7 @@
         <v>2523</v>
       </c>
       <c r="B956" s="8" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="O956">
         <v>1</v>
@@ -31537,7 +31537,7 @@
         <v>1826</v>
       </c>
       <c r="B1249" s="8" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="O1249">
         <v>1</v>
@@ -37345,7 +37345,7 @@
         <v>2882</v>
       </c>
       <c r="B1777" s="8" t="s">
-        <v>3712</v>
+        <v>3711</v>
       </c>
       <c r="O1777">
         <v>1</v>
@@ -37367,7 +37367,7 @@
         <v>2319</v>
       </c>
       <c r="B1779" s="8" t="s">
-        <v>3713</v>
+        <v>3712</v>
       </c>
       <c r="O1779">
         <v>1</v>
@@ -37752,7 +37752,7 @@
         <v>2420</v>
       </c>
       <c r="B1814" s="8" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="O1814">
         <v>1</v>
@@ -38214,7 +38214,7 @@
         <v>2390</v>
       </c>
       <c r="B1856" s="8" t="s">
-        <v>3714</v>
+        <v>3713</v>
       </c>
       <c r="O1856">
         <v>1</v>
@@ -39091,7 +39091,7 @@
         <v>1391</v>
       </c>
       <c r="B1894" s="8" t="s">
-        <v>3715</v>
+        <v>3714</v>
       </c>
       <c r="C1894">
         <v>0</v>
@@ -42849,7 +42849,7 @@
         <v>3634</v>
       </c>
       <c r="B1971" s="2" t="s">
-        <v>3709</v>
+        <v>3708</v>
       </c>
       <c r="C1971">
         <v>0</v>
@@ -43746,10 +43746,10 @@
     </row>
     <row r="1989" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1989" s="2" t="s">
+        <v>3705</v>
+      </c>
+      <c r="B1989" s="2" t="s">
         <v>3706</v>
-      </c>
-      <c r="B1989" s="2" t="s">
-        <v>3707</v>
       </c>
       <c r="C1989">
         <v>0</v>
@@ -43796,10 +43796,10 @@
     </row>
     <row r="1990" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1990" s="2" t="s">
+        <v>3703</v>
+      </c>
+      <c r="B1990" s="2" t="s">
         <v>3704</v>
-      </c>
-      <c r="B1990" s="2" t="s">
-        <v>3705</v>
       </c>
       <c r="C1990">
         <v>0</v>
@@ -43846,10 +43846,10 @@
     </row>
     <row r="1991" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1991" s="2" t="s">
+        <v>3701</v>
+      </c>
+      <c r="B1991" s="2" t="s">
         <v>3702</v>
-      </c>
-      <c r="B1991" s="2" t="s">
-        <v>3703</v>
       </c>
       <c r="C1991">
         <v>0</v>
@@ -43896,10 +43896,10 @@
     </row>
     <row r="1992" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1992" s="2" t="s">
+        <v>3699</v>
+      </c>
+      <c r="B1992" s="2" t="s">
         <v>3700</v>
-      </c>
-      <c r="B1992" s="2" t="s">
-        <v>3701</v>
       </c>
       <c r="C1992">
         <v>0</v>
@@ -43946,10 +43946,10 @@
     </row>
     <row r="1993" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1993" s="2" t="s">
+        <v>3697</v>
+      </c>
+      <c r="B1993" s="2" t="s">
         <v>3698</v>
-      </c>
-      <c r="B1993" s="2" t="s">
-        <v>3699</v>
       </c>
       <c r="C1993">
         <v>0</v>
@@ -43996,10 +43996,10 @@
     </row>
     <row r="1994" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1994" s="2" t="s">
+        <v>3695</v>
+      </c>
+      <c r="B1994" s="2" t="s">
         <v>3696</v>
-      </c>
-      <c r="B1994" s="2" t="s">
-        <v>3697</v>
       </c>
       <c r="C1994">
         <v>0</v>
@@ -44046,7 +44046,7 @@
     </row>
     <row r="1995" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1995" s="2" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="B1995" s="2" t="s">
         <v>3032</v>
@@ -44096,10 +44096,10 @@
     </row>
     <row r="1996" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1996" s="2" t="s">
-        <v>3695</v>
+        <v>3694</v>
       </c>
       <c r="B1996" s="2" t="s">
-        <v>3708</v>
+        <v>3707</v>
       </c>
       <c r="C1996">
         <v>0</v>
@@ -44146,7 +44146,7 @@
     </row>
     <row r="1997" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1997" s="2" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="B1997" s="2" t="s">
         <v>2464</v>
@@ -44196,7 +44196,7 @@
     </row>
     <row r="1998" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1998" s="2" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="B1998" s="2" t="s">
         <v>3463</v>
@@ -44246,7 +44246,7 @@
     </row>
     <row r="1999" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1999" s="2" t="s">
-        <v>3692</v>
+        <v>3691</v>
       </c>
       <c r="B1999" s="8" t="s">
         <v>1532</v>
@@ -44296,10 +44296,10 @@
     </row>
     <row r="2000" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2000" s="2" t="s">
+        <v>3688</v>
+      </c>
+      <c r="B2000" s="2" t="s">
         <v>3689</v>
-      </c>
-      <c r="B2000" s="2" t="s">
-        <v>3690</v>
       </c>
       <c r="C2000">
         <v>0</v>
@@ -44346,10 +44346,10 @@
     </row>
     <row r="2001" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2001" s="2" t="s">
+        <v>3686</v>
+      </c>
+      <c r="B2001" s="2" t="s">
         <v>3687</v>
-      </c>
-      <c r="B2001" s="2" t="s">
-        <v>3688</v>
       </c>
       <c r="C2001">
         <v>0</v>
@@ -44396,10 +44396,10 @@
     </row>
     <row r="2002" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2002" s="2" t="s">
+        <v>3684</v>
+      </c>
+      <c r="B2002" s="2" t="s">
         <v>3685</v>
-      </c>
-      <c r="B2002" s="2" t="s">
-        <v>3686</v>
       </c>
       <c r="C2002">
         <v>0</v>
@@ -44496,7 +44496,7 @@
     </row>
     <row r="2004" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2004" s="2" t="s">
-        <v>3684</v>
+        <v>3683</v>
       </c>
       <c r="B2004" s="2" t="s">
         <v>3075</v>
@@ -44546,10 +44546,10 @@
     </row>
     <row r="2005" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2005" s="2" t="s">
+        <v>3681</v>
+      </c>
+      <c r="B2005" s="2" t="s">
         <v>3682</v>
-      </c>
-      <c r="B2005" s="2" t="s">
-        <v>3683</v>
       </c>
       <c r="C2005">
         <v>0</v>
@@ -44596,7 +44596,7 @@
     </row>
     <row r="2006" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2006" s="2" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="B2006" s="2" t="s">
         <v>3486</v>
@@ -44696,7 +44696,7 @@
     </row>
     <row r="2008" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2008" s="2" t="s">
-        <v>3680</v>
+        <v>3679</v>
       </c>
       <c r="B2008" s="2" t="s">
         <v>2630</v>
@@ -44746,10 +44746,10 @@
     </row>
     <row r="2009" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2009" s="2" t="s">
+        <v>3677</v>
+      </c>
+      <c r="B2009" s="2" t="s">
         <v>3678</v>
-      </c>
-      <c r="B2009" s="2" t="s">
-        <v>3679</v>
       </c>
       <c r="C2009">
         <v>0</v>
@@ -44796,10 +44796,10 @@
     </row>
     <row r="2010" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2010" s="2" t="s">
-        <v>3677</v>
+        <v>3676</v>
       </c>
       <c r="B2010" s="2" t="s">
-        <v>3676</v>
+        <v>3675</v>
       </c>
       <c r="C2010">
         <v>0</v>
@@ -44846,10 +44846,10 @@
     </row>
     <row r="2011" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2011" s="2" t="s">
+        <v>3673</v>
+      </c>
+      <c r="B2011" s="2" t="s">
         <v>3674</v>
-      </c>
-      <c r="B2011" s="2" t="s">
-        <v>3675</v>
       </c>
       <c r="C2011">
         <v>0</v>
@@ -44896,7 +44896,7 @@
     </row>
     <row r="2012" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2012" s="2" t="s">
-        <v>3673</v>
+        <v>3672</v>
       </c>
       <c r="B2012" s="2" t="s">
         <v>2620</v>
@@ -44946,10 +44946,10 @@
     </row>
     <row r="2013" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2013" s="2" t="s">
+        <v>3670</v>
+      </c>
+      <c r="B2013" s="2" t="s">
         <v>3671</v>
-      </c>
-      <c r="B2013" s="2" t="s">
-        <v>3672</v>
       </c>
       <c r="C2013">
         <v>0</v>
@@ -44996,10 +44996,10 @@
     </row>
     <row r="2014" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2014" s="2" t="s">
+        <v>3668</v>
+      </c>
+      <c r="B2014" s="2" t="s">
         <v>3669</v>
-      </c>
-      <c r="B2014" s="2" t="s">
-        <v>3670</v>
       </c>
       <c r="C2014">
         <v>0</v>
@@ -45046,10 +45046,10 @@
     </row>
     <row r="2015" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2015" s="2" t="s">
+        <v>3666</v>
+      </c>
+      <c r="B2015" s="2" t="s">
         <v>3667</v>
-      </c>
-      <c r="B2015" s="2" t="s">
-        <v>3668</v>
       </c>
       <c r="C2015">
         <v>0</v>
@@ -45096,7 +45096,7 @@
     </row>
     <row r="2016" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2016" s="2" t="s">
-        <v>3666</v>
+        <v>3665</v>
       </c>
       <c r="B2016" s="2" t="s">
         <v>1535</v>
@@ -45149,7 +45149,7 @@
         <v>3664</v>
       </c>
       <c r="B2017" s="2" t="s">
-        <v>3665</v>
+        <v>3732</v>
       </c>
       <c r="C2017">
         <v>0</v>
@@ -45913,8 +45913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF0FCDE-94BE-466E-B4D1-562E63A429CC}">
   <dimension ref="A1:P2034"/>
   <sheetViews>
-    <sheetView topLeftCell="A2018" workbookViewId="0">
-      <selection activeCell="A1948" sqref="A1948"/>
+    <sheetView tabSelected="1" topLeftCell="A2003" workbookViewId="0">
+      <selection activeCell="A2017" sqref="A2017"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -45938,7 +45938,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>3716</v>
+        <v>3715</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>118</v>
@@ -45956,10 +45956,10 @@
         <v>396</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>3717</v>
+        <v>3716</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>3721</v>
+        <v>3720</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>3573</v>
@@ -52015,7 +52015,7 @@
     </row>
     <row r="133" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -55462,7 +55462,7 @@
     </row>
     <row r="507" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A507" s="1" t="s">
-        <v>3710</v>
+        <v>3709</v>
       </c>
       <c r="F507">
         <v>1</v>
@@ -58400,7 +58400,7 @@
     </row>
     <row r="828" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A828" s="7" t="s">
-        <v>3721</v>
+        <v>3720</v>
       </c>
       <c r="J828">
         <v>1</v>
@@ -58413,22 +58413,22 @@
     </row>
     <row r="830" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A830" t="s">
-        <v>3727</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="831" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A831" t="s">
-        <v>3728</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="832" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A832" t="s">
-        <v>3729</v>
+        <v>3728</v>
       </c>
     </row>
     <row r="833" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A833" t="s">
-        <v>3730</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="834" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -59164,7 +59164,7 @@
     </row>
     <row r="929" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A929" s="8" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="N929">
         <v>1</v>
@@ -59380,7 +59380,7 @@
     </row>
     <row r="956" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A956" s="8" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="N956">
         <v>1</v>
@@ -61724,7 +61724,7 @@
     </row>
     <row r="1249" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1249" s="8" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="N1249">
         <v>1</v>
@@ -65948,7 +65948,7 @@
     </row>
     <row r="1777" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1777" s="8" t="s">
-        <v>3712</v>
+        <v>3711</v>
       </c>
       <c r="N1777">
         <v>1</v>
@@ -65964,7 +65964,7 @@
     </row>
     <row r="1779" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1779" s="8" t="s">
-        <v>3713</v>
+        <v>3712</v>
       </c>
       <c r="N1779">
         <v>1</v>
@@ -66244,7 +66244,7 @@
     </row>
     <row r="1814" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1814" s="8" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="N1814">
         <v>1</v>
@@ -66580,7 +66580,7 @@
     </row>
     <row r="1856" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1856" s="8" t="s">
-        <v>3714</v>
+        <v>3713</v>
       </c>
       <c r="N1856">
         <v>1</v>
@@ -67383,7 +67383,7 @@
     </row>
     <row r="1894" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1894" s="8" t="s">
-        <v>3715</v>
+        <v>3714</v>
       </c>
       <c r="B1894">
         <v>0</v>
@@ -69941,7 +69941,7 @@
     </row>
     <row r="1947" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1947" s="1" t="s">
-        <v>3732</v>
+        <v>3731</v>
       </c>
       <c r="B1947">
         <v>0</v>
@@ -71141,7 +71141,7 @@
     </row>
     <row r="1971" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1971" s="2" t="s">
-        <v>3709</v>
+        <v>3708</v>
       </c>
       <c r="B1971">
         <v>0</v>
@@ -72041,7 +72041,7 @@
     </row>
     <row r="1989" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1989" s="2" t="s">
-        <v>3707</v>
+        <v>3706</v>
       </c>
       <c r="B1989">
         <v>0</v>
@@ -72091,7 +72091,7 @@
     </row>
     <row r="1990" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1990" s="2" t="s">
-        <v>3705</v>
+        <v>3704</v>
       </c>
       <c r="B1990">
         <v>0</v>
@@ -72141,7 +72141,7 @@
     </row>
     <row r="1991" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1991" s="2" t="s">
-        <v>3703</v>
+        <v>3702</v>
       </c>
       <c r="B1991">
         <v>0</v>
@@ -72191,7 +72191,7 @@
     </row>
     <row r="1992" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1992" s="2" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="B1992">
         <v>0</v>
@@ -72241,7 +72241,7 @@
     </row>
     <row r="1993" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1993" s="2" t="s">
-        <v>3699</v>
+        <v>3698</v>
       </c>
       <c r="B1993">
         <v>0</v>
@@ -72291,7 +72291,7 @@
     </row>
     <row r="1994" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1994" s="2" t="s">
-        <v>3697</v>
+        <v>3696</v>
       </c>
       <c r="B1994">
         <v>0</v>
@@ -72391,7 +72391,7 @@
     </row>
     <row r="1996" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1996" s="2" t="s">
-        <v>3708</v>
+        <v>3707</v>
       </c>
       <c r="B1996">
         <v>0</v>
@@ -72591,7 +72591,7 @@
     </row>
     <row r="2000" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2000" s="2" t="s">
-        <v>3690</v>
+        <v>3689</v>
       </c>
       <c r="B2000">
         <v>0</v>
@@ -72641,7 +72641,7 @@
     </row>
     <row r="2001" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2001" s="2" t="s">
-        <v>3688</v>
+        <v>3687</v>
       </c>
       <c r="B2001">
         <v>0</v>
@@ -72691,7 +72691,7 @@
     </row>
     <row r="2002" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2002" s="2" t="s">
-        <v>3686</v>
+        <v>3685</v>
       </c>
       <c r="B2002">
         <v>0</v>
@@ -72841,7 +72841,7 @@
     </row>
     <row r="2005" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2005" s="2" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="B2005">
         <v>0</v>
@@ -73041,7 +73041,7 @@
     </row>
     <row r="2009" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2009" s="2" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="B2009">
         <v>0</v>
@@ -73091,7 +73091,7 @@
     </row>
     <row r="2010" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2010" s="2" t="s">
-        <v>3676</v>
+        <v>3675</v>
       </c>
       <c r="B2010">
         <v>0</v>
@@ -73141,7 +73141,7 @@
     </row>
     <row r="2011" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2011" s="2" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
       <c r="B2011">
         <v>0</v>
@@ -73241,7 +73241,7 @@
     </row>
     <row r="2013" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2013" s="2" t="s">
-        <v>3672</v>
+        <v>3671</v>
       </c>
       <c r="B2013">
         <v>0</v>
@@ -73291,7 +73291,7 @@
     </row>
     <row r="2014" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2014" s="2" t="s">
-        <v>3670</v>
+        <v>3669</v>
       </c>
       <c r="B2014">
         <v>0</v>
@@ -73341,7 +73341,7 @@
     </row>
     <row r="2015" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2015" s="2" t="s">
-        <v>3668</v>
+        <v>3667</v>
       </c>
       <c r="B2015">
         <v>0</v>
@@ -73441,7 +73441,7 @@
     </row>
     <row r="2017" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2017" s="2" t="s">
-        <v>3665</v>
+        <v>3732</v>
       </c>
       <c r="B2017">
         <v>0</v>
@@ -74241,7 +74241,7 @@
     </row>
     <row r="2034" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2034" s="2" t="s">
-        <v>3731</v>
+        <v>3730</v>
       </c>
     </row>
   </sheetData>

--- a/data/Refs full - corrected Jul20.xlsx
+++ b/data/Refs full - corrected Jul20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marissa\Documents\Citation-Network-Analysis-New\Citation-Network-Analysis-New\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECEA099-145D-4B41-942D-4CFA0228378F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA06133-AC6E-4301-9EBC-3A485DDBCA0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full References" sheetId="2" r:id="rId1"/>
@@ -11531,9 +11531,6 @@
     <t>Etter, JF (2015)</t>
   </si>
   <si>
-    <t>PHS 2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">World Health Organization (2016) online: http://www.who.int/fctc/cop/cop7/FCTC_COP_7_11_EN.pdf?ua=1&amp;ua=1          </t>
   </si>
   <si>
@@ -11568,6 +11565,9 @@
   </si>
   <si>
     <t>World Health Oraganization (ND)</t>
+  </si>
+  <si>
+    <t>NHS HS 2016</t>
   </si>
 </sst>
 </file>
@@ -12043,10 +12043,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q2032"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2003" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A821" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B2017" sqref="B2017"/>
+      <selection pane="bottomLeft" activeCell="I833" sqref="I833"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12099,7 +12099,7 @@
         <v>3716</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>3720</v>
+        <v>3732</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>3573</v>
@@ -26971,10 +26971,10 @@
     </row>
     <row r="828" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A828" s="7" t="s">
-        <v>3720</v>
+        <v>3732</v>
       </c>
       <c r="B828" s="7" t="s">
-        <v>3720</v>
+        <v>3732</v>
       </c>
       <c r="K828">
         <v>1</v>
@@ -26982,7 +26982,7 @@
     </row>
     <row r="829" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A829" s="13" t="s">
-        <v>3721</v>
+        <v>3720</v>
       </c>
       <c r="B829" s="3" t="s">
         <v>1218</v>
@@ -26990,34 +26990,34 @@
     </row>
     <row r="830" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A830" s="9" t="s">
-        <v>3722</v>
+        <v>3721</v>
       </c>
       <c r="B830" t="s">
-        <v>3726</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="831" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A831" s="10" t="s">
-        <v>3723</v>
+        <v>3722</v>
       </c>
       <c r="B831" t="s">
-        <v>3727</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="832" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A832" t="s">
-        <v>3724</v>
+        <v>3723</v>
       </c>
       <c r="B832" t="s">
-        <v>3728</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="833" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A833" s="9" t="s">
-        <v>3725</v>
+        <v>3724</v>
       </c>
       <c r="B833" t="s">
-        <v>3729</v>
+        <v>3728</v>
       </c>
     </row>
     <row r="835" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -45149,7 +45149,7 @@
         <v>3664</v>
       </c>
       <c r="B2017" s="2" t="s">
-        <v>3732</v>
+        <v>3731</v>
       </c>
       <c r="C2017">
         <v>0</v>
@@ -45913,8 +45913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF0FCDE-94BE-466E-B4D1-562E63A429CC}">
   <dimension ref="A1:P2034"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2003" workbookViewId="0">
-      <selection activeCell="A2017" sqref="A2017"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -45959,7 +45959,7 @@
         <v>3716</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>3720</v>
+        <v>3732</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>3573</v>
@@ -58400,7 +58400,7 @@
     </row>
     <row r="828" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A828" s="7" t="s">
-        <v>3720</v>
+        <v>3732</v>
       </c>
       <c r="J828">
         <v>1</v>
@@ -58413,22 +58413,22 @@
     </row>
     <row r="830" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A830" t="s">
-        <v>3726</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="831" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A831" t="s">
-        <v>3727</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="832" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A832" t="s">
-        <v>3728</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="833" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A833" t="s">
-        <v>3729</v>
+        <v>3728</v>
       </c>
     </row>
     <row r="834" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -69941,7 +69941,7 @@
     </row>
     <row r="1947" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1947" s="1" t="s">
-        <v>3731</v>
+        <v>3730</v>
       </c>
       <c r="B1947">
         <v>0</v>
@@ -73441,7 +73441,7 @@
     </row>
     <row r="2017" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2017" s="2" t="s">
-        <v>3732</v>
+        <v>3731</v>
       </c>
       <c r="B2017">
         <v>0</v>
@@ -74241,7 +74241,7 @@
     </row>
     <row r="2034" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2034" s="2" t="s">
-        <v>3730</v>
+        <v>3729</v>
       </c>
     </row>
   </sheetData>

--- a/data/Refs full - corrected Jul20.xlsx
+++ b/data/Refs full - corrected Jul20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marissa\Documents\Citation-Network-Analysis-New\Citation-Network-Analysis-New\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA06133-AC6E-4301-9EBC-3A485DDBCA0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E0AB3D-919A-44F7-8E76-ACA3B2B3B3A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full References" sheetId="2" r:id="rId1"/>
@@ -12043,7 +12043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q2032"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A821" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="I833" sqref="I833"/>
@@ -45913,7 +45913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF0FCDE-94BE-466E-B4D1-562E63A429CC}">
   <dimension ref="A1:P2034"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
